--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.664077689093716E-07</v>
+        <v>0.002266742813555434</v>
       </c>
       <c r="D2">
-        <v>0.007034184262567189</v>
+        <v>0.06187345410222744</v>
       </c>
       <c r="E2">
-        <v>0.2820662710544979</v>
+        <v>0.3271106126342853</v>
       </c>
       <c r="F2">
-        <v>0.08904005416575145</v>
+        <v>0.1147857670857162</v>
       </c>
       <c r="G2">
-        <v>0.000479974365999114</v>
+        <v>0.01829374061026412</v>
       </c>
       <c r="H2">
-        <v>0.0003811225401522123</v>
+        <v>0.01782959888301572</v>
       </c>
       <c r="I2">
-        <v>1.932673987514733E-06</v>
+        <v>0.003660262585102769</v>
       </c>
       <c r="J2">
-        <v>0.00693204923758417</v>
+        <v>0.02112086554426473</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.664077689093716E-07</v>
+        <v>0.002266742813555434</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8.614478133051051E-07</v>
       </c>
       <c r="E3">
-        <v>4.246361595683368E-08</v>
+        <v>0.0009254868924368775</v>
       </c>
       <c r="F3">
-        <v>3.659360106045284E-07</v>
+        <v>0.001718523574625097</v>
       </c>
       <c r="G3">
-        <v>1.885873457396769E-09</v>
+        <v>5.892973404475477E-05</v>
       </c>
       <c r="H3">
-        <v>1.645350522494482E-13</v>
+        <v>5.073847617165228E-06</v>
       </c>
       <c r="I3">
-        <v>7.297576569809117E-05</v>
+        <v>0.001143795705813133</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.804527816260062E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007034184262567189</v>
+        <v>0.06187345410222744</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8.614478133051051E-07</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0002552474180068653</v>
+        <v>0.01885580995447</v>
       </c>
       <c r="F4">
-        <v>0.003082792600124451</v>
+        <v>0.04033026222480007</v>
       </c>
       <c r="G4">
-        <v>0.2622235001668425</v>
+        <v>0.2633336196851277</v>
       </c>
       <c r="H4">
-        <v>0.1143577654896859</v>
+        <v>0.1290625395216964</v>
       </c>
       <c r="I4">
-        <v>3.932409953222304E-13</v>
+        <v>5.195122425583065E-06</v>
       </c>
       <c r="J4">
-        <v>2.772870821843298E-11</v>
+        <v>0.0002651291722188809</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2820662710544979</v>
+        <v>0.3271106126342853</v>
       </c>
       <c r="C5">
-        <v>4.246361595683368E-08</v>
+        <v>0.0009254868924368775</v>
       </c>
       <c r="D5">
-        <v>0.0002552474180068653</v>
+        <v>0.01885580995447</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4732534723338424</v>
+        <v>0.5060779074118633</v>
       </c>
       <c r="G5">
-        <v>0.0001335632491521466</v>
+        <v>0.004759013923832267</v>
       </c>
       <c r="H5">
-        <v>7.259205512388789E-05</v>
+        <v>0.004838830347924539</v>
       </c>
       <c r="I5">
-        <v>3.65809998292832E-07</v>
+        <v>0.001553237744277292</v>
       </c>
       <c r="J5">
-        <v>0.3064926100321166</v>
+        <v>0.3708824780676019</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08904005416575145</v>
+        <v>0.1147857670857162</v>
       </c>
       <c r="C6">
-        <v>3.659360106045284E-07</v>
+        <v>0.001718523574625097</v>
       </c>
       <c r="D6">
-        <v>0.003082792600124451</v>
+        <v>0.04033026222480007</v>
       </c>
       <c r="E6">
-        <v>0.4732534723338424</v>
+        <v>0.5060779074118633</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0002776215992725817</v>
+        <v>0.01139456376784831</v>
       </c>
       <c r="H6">
-        <v>0.0001832420378879984</v>
+        <v>0.01137617027982918</v>
       </c>
       <c r="I6">
-        <v>1.280369150258309E-06</v>
+        <v>0.00274245977634191</v>
       </c>
       <c r="J6">
-        <v>0.04812972184935305</v>
+        <v>0.06389298004274968</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000479974365999114</v>
+        <v>0.01829374061026412</v>
       </c>
       <c r="C7">
-        <v>1.885873457396769E-09</v>
+        <v>5.892973404475477E-05</v>
       </c>
       <c r="D7">
-        <v>0.2622235001668425</v>
+        <v>0.2633336196851277</v>
       </c>
       <c r="E7">
-        <v>0.0001335632491521466</v>
+        <v>0.004759013923832267</v>
       </c>
       <c r="F7">
-        <v>0.0002776215992725817</v>
+        <v>0.01139456376784831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5521168892273962</v>
+        <v>0.5853593418669711</v>
       </c>
       <c r="I7">
-        <v>6.763589910363521E-09</v>
+        <v>0.0002261603920146182</v>
       </c>
       <c r="J7">
-        <v>3.232969447708456E-13</v>
+        <v>4.052252392439115E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0003811225401522123</v>
+        <v>0.01782959888301572</v>
       </c>
       <c r="C8">
-        <v>1.645350522494482E-13</v>
+        <v>5.073847617165228E-06</v>
       </c>
       <c r="D8">
-        <v>0.1143577654896859</v>
+        <v>0.1290625395216964</v>
       </c>
       <c r="E8">
-        <v>7.259205512388789E-05</v>
+        <v>0.004838830347924539</v>
       </c>
       <c r="F8">
-        <v>0.0001832420378879984</v>
+        <v>0.01137617027982918</v>
       </c>
       <c r="G8">
-        <v>0.5521168892273962</v>
+        <v>0.5853593418669711</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3.002043058586423E-12</v>
+        <v>4.204109319827509E-05</v>
       </c>
       <c r="J8">
-        <v>1.998401444325282E-14</v>
+        <v>2.701894990431164E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.932673987514733E-06</v>
+        <v>0.003660262585102769</v>
       </c>
       <c r="C9">
-        <v>7.297576569809117E-05</v>
+        <v>0.001143795705813133</v>
       </c>
       <c r="D9">
-        <v>3.932409953222304E-13</v>
+        <v>5.195122425583065E-06</v>
       </c>
       <c r="E9">
-        <v>3.65809998292832E-07</v>
+        <v>0.001553237744277292</v>
       </c>
       <c r="F9">
-        <v>1.280369150258309E-06</v>
+        <v>0.00274245977634191</v>
       </c>
       <c r="G9">
-        <v>6.763589910363521E-09</v>
+        <v>0.0002261603920146182</v>
       </c>
       <c r="H9">
-        <v>3.002043058586423E-12</v>
+        <v>4.204109319827509E-05</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.0282254782501E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00693204923758417</v>
+        <v>0.02112086554426473</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4.804527816260062E-06</v>
       </c>
       <c r="D10">
-        <v>2.772870821843298E-11</v>
+        <v>0.0002651291722188809</v>
       </c>
       <c r="E10">
-        <v>0.3064926100321166</v>
+        <v>0.3708824780676019</v>
       </c>
       <c r="F10">
-        <v>0.04812972184935305</v>
+        <v>0.06389298004274968</v>
       </c>
       <c r="G10">
-        <v>3.232969447708456E-13</v>
+        <v>4.052252392439115E-05</v>
       </c>
       <c r="H10">
-        <v>1.998401444325282E-14</v>
+        <v>2.701894990431164E-05</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.0282254782501E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.071084512361505</v>
+        <v>3.724064133794076</v>
       </c>
       <c r="D2">
-        <v>2.706893779500608</v>
+        <v>2.029399791593568</v>
       </c>
       <c r="E2">
-        <v>-1.076901649279309</v>
+        <v>-1.015470435305713</v>
       </c>
       <c r="F2">
-        <v>-1.703944247611901</v>
+        <v>-1.681716324886798</v>
       </c>
       <c r="G2">
-        <v>3.515880974368205</v>
+        <v>2.670172450573611</v>
       </c>
       <c r="H2">
-        <v>3.578244305676652</v>
+        <v>2.683313138943567</v>
       </c>
       <c r="I2">
-        <v>4.819764515098543</v>
+        <v>3.482509582818839</v>
       </c>
       <c r="J2">
-        <v>-2.711821724198145</v>
+        <v>-2.596495944714953</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.071084512361505</v>
+        <v>-3.724064133794076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.886605071674811</v>
+        <v>-8.322866173706476</v>
       </c>
       <c r="E3">
-        <v>-5.570306984978165</v>
+        <v>-4.180211639887258</v>
       </c>
       <c r="F3">
-        <v>-5.158065098380908</v>
+        <v>-3.864270264165719</v>
       </c>
       <c r="G3">
-        <v>-6.125586651254776</v>
+        <v>-5.659397697396773</v>
       </c>
       <c r="H3">
-        <v>-7.59332351527193</v>
+        <v>-7.132263771469482</v>
       </c>
       <c r="I3">
-        <v>-4.001277162930524</v>
+        <v>-4.071639822057445</v>
       </c>
       <c r="J3">
-        <v>-10.02361990605553</v>
+        <v>-7.16716433528293</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.706893779500608</v>
+        <v>-2.029399791593568</v>
       </c>
       <c r="C4">
-        <v>8.886605071674811</v>
+        <v>8.322866173706476</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.684555190791521</v>
+        <v>-2.654685330773026</v>
       </c>
       <c r="F4">
-        <v>-2.974501919056947</v>
+        <v>-2.25942627750447</v>
       </c>
       <c r="G4">
-        <v>1.122473474207883</v>
+        <v>1.165389519267492</v>
       </c>
       <c r="H4">
-        <v>1.581789078452781</v>
+        <v>1.612948003134218</v>
       </c>
       <c r="I4">
-        <v>7.466120212420503</v>
+        <v>7.117180611800516</v>
       </c>
       <c r="J4">
-        <v>-6.8189143217275</v>
+        <v>-4.833927266355376</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.076901649279309</v>
+        <v>1.015470435305713</v>
       </c>
       <c r="C5">
-        <v>5.570306984978165</v>
+        <v>4.180211639887258</v>
       </c>
       <c r="D5">
-        <v>3.684555190791521</v>
+        <v>2.654685330773026</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7177627713775417</v>
+        <v>0.6824699428399744</v>
       </c>
       <c r="G5">
-        <v>3.851103029381651</v>
+        <v>3.350522666991151</v>
       </c>
       <c r="H5">
-        <v>4.002566161123795</v>
+        <v>3.342163122065812</v>
       </c>
       <c r="I5">
-        <v>5.158133192004657</v>
+        <v>3.915631724867821</v>
       </c>
       <c r="J5">
-        <v>-1.023702320734642</v>
+        <v>-0.9245096195960101</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.703944247611901</v>
+        <v>1.681716324886798</v>
       </c>
       <c r="C6">
-        <v>5.158065098380908</v>
+        <v>3.864270264165719</v>
       </c>
       <c r="D6">
-        <v>2.974501919056947</v>
+        <v>2.25942627750447</v>
       </c>
       <c r="E6">
-        <v>-0.7177627713775417</v>
+        <v>-0.6824699428399744</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.662485741081322</v>
+        <v>2.910871565286189</v>
       </c>
       <c r="H6">
-        <v>3.77055051262736</v>
+        <v>2.91168878759655</v>
       </c>
       <c r="I6">
-        <v>4.905275371403651</v>
+        <v>3.62789400550261</v>
       </c>
       <c r="J6">
-        <v>-1.981293645076995</v>
+        <v>-2.011836940543725</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.515880974368205</v>
+        <v>-2.670172450573611</v>
       </c>
       <c r="C7">
-        <v>6.125586651254776</v>
+        <v>5.659397697396773</v>
       </c>
       <c r="D7">
-        <v>-1.122473474207883</v>
+        <v>-1.165389519267492</v>
       </c>
       <c r="E7">
-        <v>-3.851103029381651</v>
+        <v>-3.350522666991151</v>
       </c>
       <c r="F7">
-        <v>-3.662485741081322</v>
+        <v>-2.910871565286189</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5950113055528821</v>
+        <v>0.5584489333899387</v>
       </c>
       <c r="I7">
-        <v>5.90302263378043</v>
+        <v>4.918941748323756</v>
       </c>
       <c r="J7">
-        <v>-7.494899753824957</v>
+        <v>-5.873185387481753</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.578244305676652</v>
+        <v>-2.683313138943567</v>
       </c>
       <c r="C8">
-        <v>7.59332351527193</v>
+        <v>7.132263771469482</v>
       </c>
       <c r="D8">
-        <v>-1.581789078452781</v>
+        <v>-1.612948003134218</v>
       </c>
       <c r="E8">
-        <v>-4.002566161123795</v>
+        <v>-3.342163122065812</v>
       </c>
       <c r="F8">
-        <v>-3.77055051262736</v>
+        <v>-2.91168878759655</v>
       </c>
       <c r="G8">
-        <v>-0.5950113055528821</v>
+        <v>-0.5584489333899387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.162646108039401</v>
+        <v>5.852022056024677</v>
       </c>
       <c r="J8">
-        <v>-7.895761977467507</v>
+        <v>-6.108758688324752</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.819764515098543</v>
+        <v>-3.482509582818839</v>
       </c>
       <c r="C9">
-        <v>4.001277162930524</v>
+        <v>4.071639822057445</v>
       </c>
       <c r="D9">
-        <v>-7.466120212420503</v>
+        <v>-7.117180611800516</v>
       </c>
       <c r="E9">
-        <v>-5.158133192004657</v>
+        <v>-3.915631724867821</v>
       </c>
       <c r="F9">
-        <v>-4.905275371403651</v>
+        <v>-3.62789400550261</v>
       </c>
       <c r="G9">
-        <v>-5.90302263378043</v>
+        <v>-4.918941748323756</v>
       </c>
       <c r="H9">
-        <v>-7.162646108039401</v>
+        <v>-5.852022056024677</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-9.440086771531279</v>
+        <v>-6.689304330783119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.711821724198145</v>
+        <v>2.596495944714953</v>
       </c>
       <c r="C10">
-        <v>10.02361990605553</v>
+        <v>7.16716433528293</v>
       </c>
       <c r="D10">
-        <v>6.8189143217275</v>
+        <v>4.833927266355376</v>
       </c>
       <c r="E10">
-        <v>1.023702320734642</v>
+        <v>0.9245096195960101</v>
       </c>
       <c r="F10">
-        <v>1.981293645076995</v>
+        <v>2.011836940543725</v>
       </c>
       <c r="G10">
-        <v>7.494899753824957</v>
+        <v>5.873185387481753</v>
       </c>
       <c r="H10">
-        <v>7.895761977467507</v>
+        <v>6.108758688324752</v>
       </c>
       <c r="I10">
-        <v>9.440086771531279</v>
+        <v>6.689304330783119</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>0.5471930303679644</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.5783829906540999</v>
@@ -1477,42 +1477,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.7042596075429847</v>
+        <v>0.6968925570908137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.6968925570908137</v>
+        <v>0.7042596075429847</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>0.7387023721458145</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.002266742813555434</v>
+        <v>0.0002479579910474872</v>
       </c>
       <c r="D2">
-        <v>0.06187345410222744</v>
+        <v>0.06358526189051772</v>
       </c>
       <c r="E2">
-        <v>0.3271106126342853</v>
+        <v>0.07198199077590961</v>
       </c>
       <c r="F2">
-        <v>0.1147857670857162</v>
+        <v>0.3000440694067792</v>
       </c>
       <c r="G2">
-        <v>0.01829374061026412</v>
+        <v>0.01683761564620379</v>
       </c>
       <c r="H2">
-        <v>0.01782959888301572</v>
+        <v>0.008262061101725893</v>
       </c>
       <c r="I2">
-        <v>0.003660262585102769</v>
+        <v>0.000363480960178908</v>
       </c>
       <c r="J2">
-        <v>0.02112086554426473</v>
+        <v>0.2253637013320056</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002266742813555434</v>
+        <v>0.0002479579910474872</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.614478133051051E-07</v>
+        <v>1.906754754088524E-10</v>
       </c>
       <c r="E3">
-        <v>0.0009254868924368775</v>
+        <v>2.342526173038095E-10</v>
       </c>
       <c r="F3">
-        <v>0.001718523574625097</v>
+        <v>3.669964729402508E-05</v>
       </c>
       <c r="G3">
-        <v>5.892973404475477E-05</v>
+        <v>1.964572948764953E-10</v>
       </c>
       <c r="H3">
-        <v>5.073847617165228E-06</v>
+        <v>3.666945636027208E-09</v>
       </c>
       <c r="I3">
-        <v>0.001143795705813133</v>
+        <v>4.78086857014226E-06</v>
       </c>
       <c r="J3">
-        <v>4.804527816260062E-06</v>
+        <v>6.367178681632168E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06187345410222744</v>
+        <v>0.06358526189051772</v>
       </c>
       <c r="C4">
-        <v>8.614478133051051E-07</v>
+        <v>1.906754754088524E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01885580995447</v>
+        <v>0.0001334120649598702</v>
       </c>
       <c r="F4">
-        <v>0.04033026222480007</v>
+        <v>0.01999430368643784</v>
       </c>
       <c r="G4">
-        <v>0.2633336196851277</v>
+        <v>0.07337408281524627</v>
       </c>
       <c r="H4">
-        <v>0.1290625395216964</v>
+        <v>0.008235699295182641</v>
       </c>
       <c r="I4">
-        <v>5.195122425583065E-06</v>
+        <v>1.099513369240412E-09</v>
       </c>
       <c r="J4">
-        <v>0.0002651291722188809</v>
+        <v>0.0347571565139102</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3271106126342853</v>
+        <v>0.07198199077590961</v>
       </c>
       <c r="C5">
-        <v>0.0009254868924368775</v>
+        <v>2.342526173038095E-10</v>
       </c>
       <c r="D5">
-        <v>0.01885580995447</v>
+        <v>0.0001334120649598702</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5060779074118633</v>
+        <v>0.02321167111663058</v>
       </c>
       <c r="G5">
-        <v>0.004759013923832267</v>
+        <v>0.04002735648999201</v>
       </c>
       <c r="H5">
-        <v>0.004838830347924539</v>
+        <v>0.00422279853611407</v>
       </c>
       <c r="I5">
-        <v>0.001553237744277292</v>
+        <v>1.18739817978053E-09</v>
       </c>
       <c r="J5">
-        <v>0.3708824780676019</v>
+        <v>0.04268231463282812</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1147857670857162</v>
+        <v>0.3000440694067792</v>
       </c>
       <c r="C6">
-        <v>0.001718523574625097</v>
+        <v>3.669964729402508E-05</v>
       </c>
       <c r="D6">
-        <v>0.04033026222480007</v>
+        <v>0.01999430368643784</v>
       </c>
       <c r="E6">
-        <v>0.5060779074118633</v>
+        <v>0.02321167111663058</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01139456376784831</v>
+        <v>0.003690543965767512</v>
       </c>
       <c r="H6">
-        <v>0.01137617027982918</v>
+        <v>0.001564366097399406</v>
       </c>
       <c r="I6">
-        <v>0.00274245977634191</v>
+        <v>5.440289030911316E-05</v>
       </c>
       <c r="J6">
-        <v>0.06389298004274968</v>
+        <v>0.03809014049137316</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01829374061026412</v>
+        <v>0.01683761564620379</v>
       </c>
       <c r="C7">
-        <v>5.892973404475477E-05</v>
+        <v>1.964572948764953E-10</v>
       </c>
       <c r="D7">
-        <v>0.2633336196851277</v>
+        <v>0.07337408281524627</v>
       </c>
       <c r="E7">
-        <v>0.004759013923832267</v>
+        <v>0.04002735648999201</v>
       </c>
       <c r="F7">
-        <v>0.01139456376784831</v>
+        <v>0.003690543965767512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5853593418669711</v>
+        <v>0.0434517426288461</v>
       </c>
       <c r="I7">
-        <v>0.0002261603920146182</v>
+        <v>1.424593776278016E-10</v>
       </c>
       <c r="J7">
-        <v>4.052252392439115E-05</v>
+        <v>0.004377371657177109</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01782959888301572</v>
+        <v>0.008262061101725893</v>
       </c>
       <c r="C8">
-        <v>5.073847617165228E-06</v>
+        <v>3.666945636027208E-09</v>
       </c>
       <c r="D8">
-        <v>0.1290625395216964</v>
+        <v>0.008235699295182641</v>
       </c>
       <c r="E8">
-        <v>0.004838830347924539</v>
+        <v>0.00422279853611407</v>
       </c>
       <c r="F8">
-        <v>0.01137617027982918</v>
+        <v>0.001564366097399406</v>
       </c>
       <c r="G8">
-        <v>0.5853593418669711</v>
+        <v>0.0434517426288461</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>4.204109319827509E-05</v>
+        <v>5.532717617384719E-09</v>
       </c>
       <c r="J8">
-        <v>2.701894990431164E-05</v>
+        <v>0.001351888321154515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.003660262585102769</v>
+        <v>0.000363480960178908</v>
       </c>
       <c r="C9">
-        <v>0.001143795705813133</v>
+        <v>4.78086857014226E-06</v>
       </c>
       <c r="D9">
-        <v>5.195122425583065E-06</v>
+        <v>1.099513369240412E-09</v>
       </c>
       <c r="E9">
-        <v>0.001553237744277292</v>
+        <v>1.18739817978053E-09</v>
       </c>
       <c r="F9">
-        <v>0.00274245977634191</v>
+        <v>5.440289030911316E-05</v>
       </c>
       <c r="G9">
-        <v>0.0002261603920146182</v>
+        <v>1.424593776278016E-10</v>
       </c>
       <c r="H9">
-        <v>4.204109319827509E-05</v>
+        <v>5.532717617384719E-09</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.0282254782501E-05</v>
+        <v>1.094174949511917E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02112086554426473</v>
+        <v>0.2253637013320056</v>
       </c>
       <c r="C10">
-        <v>4.804527816260062E-06</v>
+        <v>6.367178681632168E-06</v>
       </c>
       <c r="D10">
-        <v>0.0002651291722188809</v>
+        <v>0.0347571565139102</v>
       </c>
       <c r="E10">
-        <v>0.3708824780676019</v>
+        <v>0.04268231463282812</v>
       </c>
       <c r="F10">
-        <v>0.06389298004274968</v>
+        <v>0.03809014049137316</v>
       </c>
       <c r="G10">
-        <v>4.052252392439115E-05</v>
+        <v>0.004377371657177109</v>
       </c>
       <c r="H10">
-        <v>2.701894990431164E-05</v>
+        <v>0.001351888321154515</v>
       </c>
       <c r="I10">
-        <v>1.0282254782501E-05</v>
+        <v>1.094174949511917E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.724064133794076</v>
+        <v>4.364020637102742</v>
       </c>
       <c r="D2">
-        <v>2.029399791593568</v>
+        <v>1.953565542092901</v>
       </c>
       <c r="E2">
-        <v>-1.015470435305713</v>
+        <v>1.890170349037363</v>
       </c>
       <c r="F2">
-        <v>-1.681716324886798</v>
+        <v>-1.061349634963805</v>
       </c>
       <c r="G2">
-        <v>2.670172450573611</v>
+        <v>2.586597723862853</v>
       </c>
       <c r="H2">
-        <v>2.683313138943567</v>
+        <v>2.902279147670862</v>
       </c>
       <c r="I2">
-        <v>3.482509582818839</v>
+        <v>4.207497487541878</v>
       </c>
       <c r="J2">
-        <v>-2.596495944714953</v>
+        <v>1.24740838481921</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.724064133794076</v>
+        <v>-4.364020637102742</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.322866173706476</v>
+        <v>-11.04936326252203</v>
       </c>
       <c r="E3">
-        <v>-4.180211639887258</v>
+        <v>-10.92872634423987</v>
       </c>
       <c r="F3">
-        <v>-3.864270264165719</v>
+        <v>-5.149615423187086</v>
       </c>
       <c r="G3">
-        <v>-5.659397697396773</v>
+        <v>-11.0317967859415</v>
       </c>
       <c r="H3">
-        <v>-7.132263771469482</v>
+        <v>-9.401320986354097</v>
       </c>
       <c r="I3">
-        <v>-4.071639822057445</v>
+        <v>-6.008212686182532</v>
       </c>
       <c r="J3">
-        <v>-7.16716433528293</v>
+        <v>-5.885620732340911</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.029399791593568</v>
+        <v>-1.953565542092901</v>
       </c>
       <c r="C4">
-        <v>8.322866173706476</v>
+        <v>11.04936326252203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.654685330773026</v>
+        <v>-4.617842196353163</v>
       </c>
       <c r="F4">
-        <v>-2.25942627750447</v>
+        <v>-2.508454828102167</v>
       </c>
       <c r="G4">
-        <v>1.165389519267492</v>
+        <v>1.880294067276203</v>
       </c>
       <c r="H4">
-        <v>1.612948003134218</v>
+        <v>2.903671121512676</v>
       </c>
       <c r="I4">
-        <v>7.117180611800516</v>
+        <v>10.05142028338527</v>
       </c>
       <c r="J4">
-        <v>-4.833927266355376</v>
+        <v>-2.250359918504217</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.015470435305713</v>
+        <v>-1.890170349037363</v>
       </c>
       <c r="C5">
-        <v>4.180211639887258</v>
+        <v>10.92872634423987</v>
       </c>
       <c r="D5">
-        <v>2.654685330773026</v>
+        <v>4.617842196353163</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6824699428399744</v>
+        <v>-2.439864842716016</v>
       </c>
       <c r="G5">
-        <v>3.350522666991151</v>
+        <v>2.182562215290983</v>
       </c>
       <c r="H5">
-        <v>3.342163122065812</v>
+        <v>3.190778511086843</v>
       </c>
       <c r="I5">
-        <v>3.915631724867821</v>
+        <v>10.00907474950191</v>
       </c>
       <c r="J5">
-        <v>-0.9245096195960101</v>
+        <v>-2.151427478709841</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.681716324886798</v>
+        <v>1.061349634963805</v>
       </c>
       <c r="C6">
-        <v>3.864270264165719</v>
+        <v>5.149615423187086</v>
       </c>
       <c r="D6">
-        <v>2.25942627750447</v>
+        <v>2.508454828102167</v>
       </c>
       <c r="E6">
-        <v>-0.6824699428399744</v>
+        <v>2.439864842716016</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.910871565286189</v>
+        <v>3.247885412943827</v>
       </c>
       <c r="H6">
-        <v>2.91168878759655</v>
+        <v>3.607129491341674</v>
       </c>
       <c r="I6">
-        <v>3.62789400550261</v>
+        <v>4.98674398439336</v>
       </c>
       <c r="J6">
-        <v>-2.011836940543725</v>
+        <v>2.206484241846066</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.670172450573611</v>
+        <v>-2.586597723862853</v>
       </c>
       <c r="C7">
-        <v>5.659397697396773</v>
+        <v>11.0317967859415</v>
       </c>
       <c r="D7">
-        <v>-1.165389519267492</v>
+        <v>-1.880294067276203</v>
       </c>
       <c r="E7">
-        <v>-3.350522666991151</v>
+        <v>-2.182562215290983</v>
       </c>
       <c r="F7">
-        <v>-2.910871565286189</v>
+        <v>-3.247885412943827</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5584489333899387</v>
+        <v>2.142731800106765</v>
       </c>
       <c r="I7">
-        <v>4.918941748323756</v>
+        <v>11.22183681647039</v>
       </c>
       <c r="J7">
-        <v>-5.873185387481753</v>
+        <v>-3.175499747694162</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.683313138943567</v>
+        <v>-2.902279147670862</v>
       </c>
       <c r="C8">
-        <v>7.132263771469482</v>
+        <v>9.401320986354097</v>
       </c>
       <c r="D8">
-        <v>-1.612948003134218</v>
+        <v>-2.903671121512676</v>
       </c>
       <c r="E8">
-        <v>-3.342163122065812</v>
+        <v>-3.190778511086843</v>
       </c>
       <c r="F8">
-        <v>-2.91168878759655</v>
+        <v>-3.607129491341674</v>
       </c>
       <c r="G8">
-        <v>-0.5584489333899387</v>
+        <v>-2.142731800106765</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.852022056024677</v>
+        <v>9.185558882572384</v>
       </c>
       <c r="J8">
-        <v>-6.108758688324752</v>
+        <v>-3.667614292532416</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.482509582818839</v>
+        <v>-4.207497487541878</v>
       </c>
       <c r="C9">
-        <v>4.071639822057445</v>
+        <v>6.008212686182532</v>
       </c>
       <c r="D9">
-        <v>-7.117180611800516</v>
+        <v>-10.05142028338527</v>
       </c>
       <c r="E9">
-        <v>-3.915631724867821</v>
+        <v>-10.00907474950191</v>
       </c>
       <c r="F9">
-        <v>-3.62789400550261</v>
+        <v>-4.98674398439336</v>
       </c>
       <c r="G9">
-        <v>-4.918941748323756</v>
+        <v>-11.22183681647039</v>
       </c>
       <c r="H9">
-        <v>-5.852022056024677</v>
+        <v>-9.185558882572384</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-6.689304330783119</v>
+        <v>-5.655816845788037</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.596495944714953</v>
+        <v>-1.24740838481921</v>
       </c>
       <c r="C10">
-        <v>7.16716433528293</v>
+        <v>5.885620732340911</v>
       </c>
       <c r="D10">
-        <v>4.833927266355376</v>
+        <v>2.250359918504217</v>
       </c>
       <c r="E10">
-        <v>0.9245096195960101</v>
+        <v>2.151427478709841</v>
       </c>
       <c r="F10">
-        <v>2.011836940543725</v>
+        <v>-2.206484241846066</v>
       </c>
       <c r="G10">
-        <v>5.873185387481753</v>
+        <v>3.175499747694162</v>
       </c>
       <c r="H10">
-        <v>6.108758688324752</v>
+        <v>3.667614292532416</v>
       </c>
       <c r="I10">
-        <v>6.689304330783119</v>
+        <v>5.655816845788037</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0.5471930303679644</v>
+        <v>0.5484291154288146</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="F3">
-        <v>0.5783829906540999</v>
+        <v>0.5734109224053913</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1492,12 +1492,12 @@
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.6968925570908137</v>
+        <v>0.7098847989387026</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1512,47 +1512,47 @@
         <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.7042596075429847</v>
+        <v>0.762716592135144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7387023721458145</v>
+        <v>0.907210222142919</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.949922468317086</v>
+        <v>0.9242434926832448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1563,36 +1563,36 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.037248148680896</v>
+        <v>0.7686841038114228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9822850645938772</v>
+        <v>0.7277521190400923</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.101937960109198</v>
+        <v>0.8592715581566811</v>
       </c>
     </row>
   </sheetData>
